--- a/site/Mapping Spec Git.xlsx
+++ b/site/Mapping Spec Git.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raj.ramamoorthy\Desktop\Github Standards\test\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3179A716-8CBA-4976-941B-615416481AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654E7F38-2A6F-4DDD-9A8B-E0CE0AE66310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Markdown Format" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,17 @@
     <sheet name="Target to Source" sheetId="3" r:id="rId3"/>
     <sheet name="AGG_ITEM_PRIMARY_PLASTICS" sheetId="4" r:id="rId4"/>
     <sheet name="FACT_ITEM_SPECIFICATION_COMPONE" sheetId="5" r:id="rId5"/>
-    <sheet name="BDV_OBJECT_NAME" sheetId="7" r:id="rId6"/>
-    <sheet name="PL_OBJECT_NAME" sheetId="8" r:id="rId7"/>
-    <sheet name="Original Spec" sheetId="6" r:id="rId8"/>
+    <sheet name="RDV_OBJECT_NAME" sheetId="9" r:id="rId6"/>
+    <sheet name="BDV_OBJECT_NAME" sheetId="7" r:id="rId7"/>
+    <sheet name="PL_OBJECT_NAME" sheetId="8" r:id="rId8"/>
+    <sheet name="Original Spec" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="179">
   <si>
     <t>Source System</t>
   </si>
@@ -572,6 +573,9 @@
   </si>
   <si>
     <t>PL_OBJECT_NAME</t>
+  </si>
+  <si>
+    <t>RDV_OBJECT_NAME</t>
   </si>
 </sst>
 </file>
@@ -864,6 +868,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -874,18 +890,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1362,50 +1366,50 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="37">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="37" t="s">
         <v>117</v>
       </c>
       <c r="F4" s="26"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="33" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="37" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="26"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="34"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="A6" s="34"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="34"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" customHeight="1">
       <c r="A7" s="23">
@@ -1462,19 +1466,19 @@
       <c r="B9" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="37" t="s">
         <v>117</v>
       </c>
       <c r="F9" s="26"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="33" t="s">
+      <c r="G9" s="37"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="37" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1485,13 +1489,13 @@
       <c r="B10" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="34"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
       <c r="A11" s="28">
@@ -1611,38 +1615,38 @@
       <c r="I15" s="26"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A16" s="37">
+      <c r="A16" s="33">
         <v>12</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="37" t="s">
         <v>117</v>
       </c>
       <c r="F16" s="26"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="33" t="s">
+      <c r="G16" s="37"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="37" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="34"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
       <c r="A18" s="28">
@@ -1802,11 +1806,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I6"/>
     <mergeCell ref="C9:C10"/>
@@ -1815,14 +1822,11 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3038,6 +3042,378 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B73A09-435C-407A-A9F5-72F226AE6AE6}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C331D7F1-FE18-42BB-AEE6-7CF9FBCDA4AC}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3409,14 +3785,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF11601-9FBD-4F0A-87BA-A68EC5EFC7C2}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -3781,7 +4157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
